--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hp-Cd163.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hp-Cd163.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd163</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.128414</v>
+        <v>0.1238986666666667</v>
       </c>
       <c r="H2">
-        <v>0.385242</v>
+        <v>0.371696</v>
       </c>
       <c r="I2">
-        <v>0.0205607169378674</v>
+        <v>0.01923905185495286</v>
       </c>
       <c r="J2">
-        <v>0.0205607169378674</v>
+        <v>0.01923905185495286</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1082676666666667</v>
+        <v>0.690195</v>
       </c>
       <c r="N2">
-        <v>0.324803</v>
+        <v>2.070585</v>
       </c>
       <c r="O2">
-        <v>0.02641792511238088</v>
+        <v>0.1060250152438306</v>
       </c>
       <c r="P2">
-        <v>0.02641792511238088</v>
+        <v>0.1060250152438306</v>
       </c>
       <c r="Q2">
-        <v>0.01390308414733333</v>
+        <v>0.08551424024</v>
       </c>
       <c r="R2">
-        <v>0.125127757326</v>
+        <v>0.76962816216</v>
       </c>
       <c r="S2">
-        <v>0.000543171480321442</v>
+        <v>0.002039820766198225</v>
       </c>
       <c r="T2">
-        <v>0.0005431714803214421</v>
+        <v>0.002039820766198225</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.128414</v>
+        <v>0.1238986666666667</v>
       </c>
       <c r="H3">
-        <v>0.385242</v>
+        <v>0.371696</v>
       </c>
       <c r="I3">
-        <v>0.0205607169378674</v>
+        <v>0.01923905185495286</v>
       </c>
       <c r="J3">
-        <v>0.0205607169378674</v>
+        <v>0.01923905185495286</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,60 +617,60 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9401646666666666</v>
+        <v>5.819542333333334</v>
       </c>
       <c r="N3">
-        <v>2.820494</v>
+        <v>17.458627</v>
       </c>
       <c r="O3">
-        <v>0.229405514333056</v>
+        <v>0.8939749847561693</v>
       </c>
       <c r="P3">
-        <v>0.229405514333056</v>
+        <v>0.8939749847561693</v>
       </c>
       <c r="Q3">
-        <v>0.1207303055053333</v>
+        <v>0.7210335357102223</v>
       </c>
       <c r="R3">
-        <v>1.086572749548</v>
+        <v>6.489301821392001</v>
       </c>
       <c r="S3">
-        <v>0.004716741844187846</v>
+        <v>0.01719923108875463</v>
       </c>
       <c r="T3">
-        <v>0.004716741844187847</v>
+        <v>0.01719923108875463</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.128414</v>
+        <v>5.810518333333333</v>
       </c>
       <c r="H4">
-        <v>0.385242</v>
+        <v>17.431555</v>
       </c>
       <c r="I4">
-        <v>0.0205607169378674</v>
+        <v>0.9022604239955847</v>
       </c>
       <c r="J4">
-        <v>0.0205607169378674</v>
+        <v>0.9022604239955845</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.049833</v>
+        <v>0.690195</v>
       </c>
       <c r="N4">
-        <v>9.149499</v>
+        <v>2.070585</v>
       </c>
       <c r="O4">
-        <v>0.7441765605545629</v>
+        <v>0.1060250152438306</v>
       </c>
       <c r="P4">
-        <v>0.744176560554563</v>
+        <v>0.1060250152438306</v>
       </c>
       <c r="Q4">
-        <v>0.391641254862</v>
+        <v>4.010390701075</v>
       </c>
       <c r="R4">
-        <v>3.524771293758</v>
+        <v>36.093516309675</v>
       </c>
       <c r="S4">
-        <v>0.01530080361335811</v>
+        <v>0.09566217520803695</v>
       </c>
       <c r="T4">
-        <v>0.01530080361335811</v>
+        <v>0.09566217520803691</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,72 +729,72 @@
         <v>17.431555</v>
       </c>
       <c r="I5">
-        <v>0.930337990514708</v>
+        <v>0.9022604239955847</v>
       </c>
       <c r="J5">
-        <v>0.930337990514708</v>
+        <v>0.9022604239955845</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1082676666666667</v>
+        <v>5.819542333333334</v>
       </c>
       <c r="N5">
-        <v>0.324803</v>
+        <v>17.458627</v>
       </c>
       <c r="O5">
-        <v>0.02641792511238088</v>
+        <v>0.8939749847561693</v>
       </c>
       <c r="P5">
-        <v>0.02641792511238088</v>
+        <v>0.8939749847561693</v>
       </c>
       <c r="Q5">
-        <v>0.6290912620738889</v>
+        <v>33.81455741944278</v>
       </c>
       <c r="R5">
-        <v>5.661821358665</v>
+        <v>304.331016774985</v>
       </c>
       <c r="S5">
-        <v>0.02457759936262047</v>
+        <v>0.8065982487875477</v>
       </c>
       <c r="T5">
-        <v>0.02457759936262047</v>
+        <v>0.8065982487875475</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.810518333333333</v>
+        <v>0.1062546666666667</v>
       </c>
       <c r="H6">
-        <v>17.431555</v>
+        <v>0.318764</v>
       </c>
       <c r="I6">
-        <v>0.930337990514708</v>
+        <v>0.01649928200866351</v>
       </c>
       <c r="J6">
-        <v>0.930337990514708</v>
+        <v>0.01649928200866351</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,60 +803,60 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9401646666666666</v>
+        <v>0.690195</v>
       </c>
       <c r="N6">
-        <v>2.820494</v>
+        <v>2.070585</v>
       </c>
       <c r="O6">
-        <v>0.229405514333056</v>
+        <v>0.1060250152438306</v>
       </c>
       <c r="P6">
-        <v>0.229405514333056</v>
+        <v>0.1060250152438306</v>
       </c>
       <c r="Q6">
-        <v>5.462844032018888</v>
+        <v>0.07333643966</v>
       </c>
       <c r="R6">
-        <v>49.16559628817</v>
+        <v>0.6600279569399999</v>
       </c>
       <c r="S6">
-        <v>0.2134246652176084</v>
+        <v>0.001749336626480809</v>
       </c>
       <c r="T6">
-        <v>0.2134246652176084</v>
+        <v>0.001749336626480809</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>5.810518333333333</v>
+        <v>0.1062546666666667</v>
       </c>
       <c r="H7">
-        <v>17.431555</v>
+        <v>0.318764</v>
       </c>
       <c r="I7">
-        <v>0.930337990514708</v>
+        <v>0.01649928200866351</v>
       </c>
       <c r="J7">
-        <v>0.930337990514708</v>
+        <v>0.01649928200866351</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,42 +865,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.049833</v>
+        <v>5.819542333333334</v>
       </c>
       <c r="N7">
-        <v>9.149499</v>
+        <v>17.458627</v>
       </c>
       <c r="O7">
-        <v>0.7441765605545629</v>
+        <v>0.8939749847561693</v>
       </c>
       <c r="P7">
-        <v>0.744176560554563</v>
+        <v>0.8939749847561693</v>
       </c>
       <c r="Q7">
-        <v>17.721110560105</v>
+        <v>0.6183535307808889</v>
       </c>
       <c r="R7">
-        <v>159.489995040945</v>
+        <v>5.565181777028</v>
       </c>
       <c r="S7">
-        <v>0.692335725934479</v>
+        <v>0.0147499453821827</v>
       </c>
       <c r="T7">
-        <v>0.6923357259344791</v>
+        <v>0.0147499453821827</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,60 +909,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.306667</v>
+        <v>0.3992853333333333</v>
       </c>
       <c r="H8">
-        <v>0.9200010000000001</v>
+        <v>1.197856</v>
       </c>
       <c r="I8">
-        <v>0.04910129254742459</v>
+        <v>0.06200124214079897</v>
       </c>
       <c r="J8">
-        <v>0.0491012925474246</v>
+        <v>0.06200124214079897</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1082676666666667</v>
+        <v>0.690195</v>
       </c>
       <c r="N8">
-        <v>0.324803</v>
+        <v>2.070585</v>
       </c>
       <c r="O8">
-        <v>0.02641792511238088</v>
+        <v>0.1060250152438306</v>
       </c>
       <c r="P8">
-        <v>0.02641792511238088</v>
+        <v>0.1060250152438306</v>
       </c>
       <c r="Q8">
-        <v>0.03320212053366667</v>
+        <v>0.27558474064</v>
       </c>
       <c r="R8">
-        <v>0.298819084803</v>
+        <v>2.48026266576</v>
       </c>
       <c r="S8">
-        <v>0.001297154269438968</v>
+        <v>0.006573682643114645</v>
       </c>
       <c r="T8">
-        <v>0.001297154269438968</v>
+        <v>0.006573682643114643</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.306667</v>
+        <v>0.3992853333333333</v>
       </c>
       <c r="H9">
-        <v>0.9200010000000001</v>
+        <v>1.197856</v>
       </c>
       <c r="I9">
-        <v>0.04910129254742459</v>
+        <v>0.06200124214079897</v>
       </c>
       <c r="J9">
-        <v>0.0491012925474246</v>
+        <v>0.06200124214079897</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,90 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9401646666666666</v>
+        <v>5.819542333333334</v>
       </c>
       <c r="N9">
-        <v>2.820494</v>
+        <v>17.458627</v>
       </c>
       <c r="O9">
-        <v>0.229405514333056</v>
+        <v>0.8939749847561693</v>
       </c>
       <c r="P9">
-        <v>0.229405514333056</v>
+        <v>0.8939749847561693</v>
       </c>
       <c r="Q9">
-        <v>0.2883174778326667</v>
+        <v>2.323657900412444</v>
       </c>
       <c r="R9">
-        <v>2.594857300494</v>
+        <v>20.912921103712</v>
       </c>
       <c r="S9">
-        <v>0.01126410727125979</v>
+        <v>0.05542755949768433</v>
       </c>
       <c r="T9">
-        <v>0.01126410727125979</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.306667</v>
-      </c>
-      <c r="H10">
-        <v>0.9200010000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.04910129254742459</v>
-      </c>
-      <c r="J10">
-        <v>0.0491012925474246</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.049833</v>
-      </c>
-      <c r="N10">
-        <v>9.149499</v>
-      </c>
-      <c r="O10">
-        <v>0.7441765605545629</v>
-      </c>
-      <c r="P10">
-        <v>0.744176560554563</v>
-      </c>
-      <c r="Q10">
-        <v>0.935283136611</v>
-      </c>
-      <c r="R10">
-        <v>8.417548229499001</v>
-      </c>
-      <c r="S10">
-        <v>0.03654003100672582</v>
-      </c>
-      <c r="T10">
-        <v>0.03654003100672584</v>
+        <v>0.05542755949768432</v>
       </c>
     </row>
   </sheetData>
